--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/boxplot_중금속 상자그림/data_drinking.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/boxplot_중금속 상자그림/data_drinking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\중금속 상자그림\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\boxplot_중금속 상자그림\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -570,10 +570,10 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H79" sqref="H79"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2640,7 +2640,7 @@
         <v>0.250296091484286</v>
       </c>
       <c r="G47" s="4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H47" s="4">
         <v>0.14437075942812899</v>

--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/boxplot_중금속 상자그림/data_drinking.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/boxplot_중금속 상자그림/data_drinking.xlsx
@@ -89,119 +89,119 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d-CW</t>
-  </si>
-  <si>
-    <t>d-CY</t>
-  </si>
-  <si>
-    <t>d-DF</t>
-  </si>
-  <si>
-    <t>d-DI</t>
-  </si>
-  <si>
-    <t>d-DJ</t>
-  </si>
-  <si>
-    <t>d-DK</t>
-  </si>
-  <si>
-    <t>d-DO</t>
-  </si>
-  <si>
-    <t>d-DQ</t>
-  </si>
-  <si>
-    <t>d-DS</t>
-  </si>
-  <si>
-    <t>d-DU</t>
-  </si>
-  <si>
-    <t>d-DV</t>
-  </si>
-  <si>
-    <t>d-DW</t>
-  </si>
-  <si>
-    <t>d-DX</t>
-  </si>
-  <si>
-    <t>d-DY</t>
-  </si>
-  <si>
-    <t>d-DZ</t>
-  </si>
-  <si>
-    <t>d-EF</t>
-  </si>
-  <si>
-    <t>d-EG</t>
-  </si>
-  <si>
-    <t>d-EH</t>
-  </si>
-  <si>
-    <t>d-EK</t>
-  </si>
-  <si>
-    <t>d-EN</t>
-  </si>
-  <si>
-    <t>d-EO</t>
-  </si>
-  <si>
-    <t>d-EP</t>
-  </si>
-  <si>
-    <t>d-EV</t>
-  </si>
-  <si>
-    <t>d-EY</t>
-  </si>
-  <si>
-    <t>d-FJ</t>
-  </si>
-  <si>
-    <t>d-FY</t>
-  </si>
-  <si>
-    <t>d-GH</t>
-  </si>
-  <si>
-    <t>d-GI</t>
-  </si>
-  <si>
-    <t>d-GK</t>
-  </si>
-  <si>
-    <t>d-GP</t>
-  </si>
-  <si>
-    <t>d-GR</t>
-  </si>
-  <si>
-    <t>d-GU</t>
-  </si>
-  <si>
-    <t>d-GV</t>
-  </si>
-  <si>
-    <t>d-GX</t>
-  </si>
-  <si>
-    <t>d-GZ</t>
-  </si>
-  <si>
-    <t>d-HM</t>
-  </si>
-  <si>
-    <t>d-HO</t>
-  </si>
-  <si>
     <t>Fe</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-DS</t>
+  </si>
+  <si>
+    <t>B-EY</t>
+  </si>
+  <si>
+    <t>B-HM</t>
+  </si>
+  <si>
+    <t>B-EK</t>
+  </si>
+  <si>
+    <t>B-DI</t>
+  </si>
+  <si>
+    <t>B-DJ</t>
+  </si>
+  <si>
+    <t>B-GV</t>
+  </si>
+  <si>
+    <t>B-GU</t>
+  </si>
+  <si>
+    <t>B-HO</t>
+  </si>
+  <si>
+    <t>B-EO</t>
+  </si>
+  <si>
+    <t>B-DF</t>
+  </si>
+  <si>
+    <t>B-FY</t>
+  </si>
+  <si>
+    <t>B-DK</t>
+  </si>
+  <si>
+    <t>B-GR</t>
+  </si>
+  <si>
+    <t>B-EN</t>
+  </si>
+  <si>
+    <t>B-CY</t>
+  </si>
+  <si>
+    <t>B-EV</t>
+  </si>
+  <si>
+    <t>B-CW</t>
+  </si>
+  <si>
+    <t>B-DZ</t>
+  </si>
+  <si>
+    <t>B-GP</t>
+  </si>
+  <si>
+    <t>B-DY</t>
+  </si>
+  <si>
+    <t>B-EP</t>
+  </si>
+  <si>
+    <t>B-DQ</t>
+  </si>
+  <si>
+    <t>B-DW</t>
+  </si>
+  <si>
+    <t>B-FJ</t>
+  </si>
+  <si>
+    <t>B-GZ</t>
+  </si>
+  <si>
+    <t>B-GI</t>
+  </si>
+  <si>
+    <t>B-DU</t>
+  </si>
+  <si>
+    <t>B-GK</t>
+  </si>
+  <si>
+    <t>B-GX</t>
+  </si>
+  <si>
+    <t>B-EH</t>
+  </si>
+  <si>
+    <t>B-DX</t>
+  </si>
+  <si>
+    <t>B-DV</t>
+  </si>
+  <si>
+    <t>B-EF</t>
+  </si>
+  <si>
+    <t>B-DO</t>
+  </si>
+  <si>
+    <t>B-EG</t>
+  </si>
+  <si>
+    <t>B-GH</t>
   </si>
 </sst>
 </file>
@@ -570,10 +570,10 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -610,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="2" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4">
@@ -680,7 +680,7 @@
     </row>
     <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -712,7 +712,7 @@
     </row>
     <row r="4" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -742,7 +742,7 @@
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
@@ -778,7 +778,7 @@
     </row>
     <row r="6" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
@@ -822,7 +822,7 @@
     </row>
     <row r="7" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4">
@@ -860,7 +860,7 @@
     </row>
     <row r="8" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4">
         <v>4.4860684049864402E-2</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="9" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
         <v>5.3810357955878504E-2</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="10" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
@@ -994,7 +994,7 @@
     </row>
     <row r="11" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
@@ -1034,7 +1034,7 @@
     </row>
     <row r="12" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
@@ -1074,7 +1074,7 @@
     </row>
     <row r="13" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4">
         <v>3.55401394509383E-3</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="14" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4">
         <v>1.92844339983308E-2</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="15" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4">
         <v>2.0453110701896902E-2</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="16" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1262,7 +1262,7 @@
     </row>
     <row r="17" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4">
         <v>4.0618601857996504E-2</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="18" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1356,7 +1356,7 @@
     </row>
     <row r="19" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1402,7 +1402,7 @@
     </row>
     <row r="20" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1442,7 +1442,7 @@
     </row>
     <row r="21" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4">
         <v>4.93109367513863E-2</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="22" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4">
         <v>4.93109367513863E-2</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="23" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4">
         <v>0.10499840733063399</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="24" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
         <v>6.1059384424177701E-2</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="25" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1676,7 +1676,7 @@
     </row>
     <row r="26" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1718,7 +1718,7 @@
     </row>
     <row r="27" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1756,7 +1756,7 @@
     </row>
     <row r="28" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1798,7 +1798,7 @@
     </row>
     <row r="29" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4">
         <v>3.3203074033057903E-2</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="30" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1888,7 +1888,7 @@
     </row>
     <row r="31" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1928,7 +1928,7 @@
     </row>
     <row r="32" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4">
         <v>1.3350496882967999E-2</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="33" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B33" s="4">
         <v>9.6350333993392906E-2</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="34" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -2066,7 +2066,7 @@
     </row>
     <row r="35" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4">
         <v>9.4722601886247593E-2</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="36" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -2154,7 +2154,7 @@
     </row>
     <row r="37" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B37" s="4">
         <v>1.6485661391797E-2</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="38" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -2246,7 +2246,7 @@
     </row>
     <row r="39" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4">
         <v>1.3026844515030899E-2</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="40" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B40" s="4">
         <v>0.186944227995374</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="41" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4">
         <v>5.9186696473244697E-3</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="42" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -2432,7 +2432,7 @@
     </row>
     <row r="43" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -2476,7 +2476,7 @@
     </row>
     <row r="44" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -2524,7 +2524,7 @@
     </row>
     <row r="45" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -2572,7 +2572,7 @@
     </row>
     <row r="46" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B46" s="4">
         <v>5.2019117800625396E-2</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="47" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B47" s="4">
         <v>8.4463896063686705E-2</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="48" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B48" s="4">
         <v>1.35307033788657E-4</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="50" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -2808,7 +2808,7 @@
     </row>
     <row r="51" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B51" s="4">
         <v>8.8799503033426611E-3</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="52" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -2902,7 +2902,7 @@
     </row>
     <row r="53" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" s="4">
         <v>1.54715286081783E-3</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="54" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B54" s="4">
         <v>3.3320467943756996E-2</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="55" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B55" s="4">
         <v>9.2444124733490202E-3</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="56" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B56" s="4">
         <v>7.1074443132412693E-2</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="57" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -3140,7 +3140,7 @@
     </row>
     <row r="58" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -3188,7 +3188,7 @@
     </row>
     <row r="59" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -3230,7 +3230,7 @@
     </row>
     <row r="60" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B60" s="4">
         <v>5.3152290186954899E-3</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="61" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B61" s="4">
         <v>6.3584168541138105E-3</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="62" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B62" s="4">
         <v>8.2281355425488697E-3</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="63" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B63" s="4">
         <v>5.3946560121046698E-2</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="64" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B64" s="4">
         <v>3.7100347729659401E-2</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="65" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -3510,7 +3510,7 @@
     </row>
     <row r="66" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -3556,7 +3556,7 @@
     </row>
     <row r="67" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B67" s="4">
         <v>8.1602458093507912E-2</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="68" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B68" s="4">
         <v>1.0695313157455699E-2</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="69" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B69" s="4">
         <v>4.4973674769485696E-3</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="70" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B70" s="4">
         <v>4.0044988908810697E-2</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="71" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B71" s="4">
         <v>1.7441709765385699E-4</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="72" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -3842,7 +3842,7 @@
     </row>
     <row r="73" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -3888,7 +3888,7 @@
     </row>
     <row r="74" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B74" s="4">
         <v>1.7732028528024101E-2</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="75" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -3978,7 +3978,7 @@
     </row>
     <row r="76" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B76" s="4">
         <v>6.6981266138754395E-2</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="77" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B77" s="4">
         <v>0.101273465714129</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="78" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B78" s="4">
         <v>7.49180047593862E-3</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="79" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -4158,7 +4158,7 @@
     </row>
     <row r="80" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B80" s="4">
         <v>2.7986310134657699E-3</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="81" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4">
@@ -4240,7 +4240,7 @@
     </row>
     <row r="82" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B82" s="4">
         <v>2.81804021707102E-2</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="83" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4">

--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/boxplot_중금속 상자그림/data_drinking.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/boxplot_중금속 상자그림/data_drinking.xlsx
@@ -570,10 +570,10 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -673,7 +673,9 @@
       <c r="N2" s="4">
         <v>0.16266578619143598</v>
       </c>
-      <c r="O2" s="4"/>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
       <c r="P2" s="4">
         <v>0.21393409783481199</v>
       </c>
@@ -705,7 +707,9 @@
       <c r="N3" s="4">
         <v>6.3516436922834403E-3</v>
       </c>
-      <c r="O3" s="4"/>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
       <c r="P3" s="4">
         <v>0.36848953731475598</v>
       </c>
@@ -735,7 +739,9 @@
       <c r="N4" s="4">
         <v>2.1965325634946298E-2</v>
       </c>
-      <c r="O4" s="4"/>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
       <c r="P4" s="4">
         <v>0.42958234625244901</v>
       </c>
@@ -771,7 +777,9 @@
       <c r="N5" s="4">
         <v>0.30702559384808903</v>
       </c>
-      <c r="O5" s="4"/>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
       <c r="P5" s="4">
         <v>1.0184019271603</v>
       </c>
